--- a/config_cjj/game_module_config.xlsx
+++ b/config_cjj/game_module_config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="864">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3610,6 +3610,34 @@
   </si>
   <si>
     <t>by_task</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>金鸡送礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_jjsl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSJJSLManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_xyxyd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>大额福利券（跳转小游戏入口）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYXyxydManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3694,7 +3722,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3716,6 +3744,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3751,7 +3785,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3828,6 +3862,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4107,13 +4156,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I284"/>
+  <dimension ref="A1:I286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C250" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C266" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E265" sqref="E265"/>
+      <selection pane="bottomRight" activeCell="C286" sqref="C286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10162,7 +10211,7 @@
         <v>679</v>
       </c>
       <c r="E239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F239">
         <v>1</v>
@@ -11338,6 +11387,58 @@
       </c>
       <c r="I284" s="24" t="s">
         <v>853</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A285" s="26">
+        <v>284</v>
+      </c>
+      <c r="B285" s="27" t="s">
+        <v>861</v>
+      </c>
+      <c r="C285" s="28" t="s">
+        <v>862</v>
+      </c>
+      <c r="D285" s="27" t="s">
+        <v>863</v>
+      </c>
+      <c r="E285" s="29">
+        <v>1</v>
+      </c>
+      <c r="F285" s="29">
+        <v>1</v>
+      </c>
+      <c r="G285" s="29">
+        <v>1</v>
+      </c>
+      <c r="I285" s="30" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A286" s="19">
+        <v>285</v>
+      </c>
+      <c r="B286" s="18" t="s">
+        <v>858</v>
+      </c>
+      <c r="C286" s="18" t="s">
+        <v>857</v>
+      </c>
+      <c r="D286" s="23" t="s">
+        <v>859</v>
+      </c>
+      <c r="E286">
+        <v>1</v>
+      </c>
+      <c r="F286">
+        <v>1</v>
+      </c>
+      <c r="G286">
+        <v>1</v>
+      </c>
+      <c r="I286" s="24" t="s">
+        <v>860</v>
       </c>
     </row>
   </sheetData>

--- a/config_cjj/game_module_config.xlsx
+++ b/config_cjj/game_module_config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="864">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="870">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3638,6 +3638,30 @@
   </si>
   <si>
     <t>BYXyxydManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_033_vip1ztlb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP1直通礼包</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_033_VIP1ZTLBManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_033_xrzxlb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人专享</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>XRZXGiftManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4156,13 +4180,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I286"/>
+  <dimension ref="A1:I288"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C266" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C286" sqref="C286"/>
+      <selection pane="bottomRight" activeCell="A287" sqref="A287:XFD288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11439,6 +11463,58 @@
       </c>
       <c r="I286" s="24" t="s">
         <v>860</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A287" s="19">
+        <v>286</v>
+      </c>
+      <c r="B287" s="18" t="s">
+        <v>864</v>
+      </c>
+      <c r="C287" s="18" t="s">
+        <v>865</v>
+      </c>
+      <c r="D287" s="23" t="s">
+        <v>866</v>
+      </c>
+      <c r="E287">
+        <v>1</v>
+      </c>
+      <c r="F287">
+        <v>1</v>
+      </c>
+      <c r="G287">
+        <v>1</v>
+      </c>
+      <c r="I287" s="24" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A288" s="19">
+        <v>287</v>
+      </c>
+      <c r="B288" s="18" t="s">
+        <v>867</v>
+      </c>
+      <c r="C288" s="18" t="s">
+        <v>868</v>
+      </c>
+      <c r="D288" s="23" t="s">
+        <v>869</v>
+      </c>
+      <c r="E288">
+        <v>1</v>
+      </c>
+      <c r="F288">
+        <v>1</v>
+      </c>
+      <c r="G288">
+        <v>1</v>
+      </c>
+      <c r="I288" s="24" t="s">
+        <v>645</v>
       </c>
     </row>
   </sheetData>

--- a/config_cjj/game_module_config.xlsx
+++ b/config_cjj/game_module_config.xlsx
@@ -3657,11 +3657,11 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>XRZXGiftManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>新人专享</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>XRZXGiftManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4186,7 +4186,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C266" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A287" sqref="A287:XFD288"/>
+      <selection pane="bottomRight" activeCell="F278" sqref="F278:G278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11248,7 +11248,7 @@
         <v>833</v>
       </c>
       <c r="E278">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F278">
         <v>1</v>
@@ -11274,13 +11274,13 @@
         <v>835</v>
       </c>
       <c r="E279">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F279">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G279">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I279" s="24" t="s">
         <v>836</v>
@@ -11297,13 +11297,13 @@
         <v>837</v>
       </c>
       <c r="E280">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F280">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G280">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I280" s="24" t="s">
         <v>839</v>
@@ -11323,13 +11323,13 @@
         <v>840</v>
       </c>
       <c r="E281">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F281">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G281">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I281" s="24" t="s">
         <v>839</v>
@@ -11349,13 +11349,13 @@
         <v>841</v>
       </c>
       <c r="E282">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F282">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G282">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I282" s="24" t="s">
         <v>839</v>
@@ -11375,13 +11375,13 @@
         <v>855</v>
       </c>
       <c r="E283">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F283">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G283">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I283" s="24" t="s">
         <v>849</v>
@@ -11479,7 +11479,7 @@
         <v>866</v>
       </c>
       <c r="E287">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F287">
         <v>1</v>
@@ -11499,13 +11499,13 @@
         <v>867</v>
       </c>
       <c r="C288" s="18" t="s">
+        <v>869</v>
+      </c>
+      <c r="D288" s="23" t="s">
         <v>868</v>
       </c>
-      <c r="D288" s="23" t="s">
-        <v>869</v>
-      </c>
       <c r="E288">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F288">
         <v>1</v>

--- a/config_cjj/game_module_config.xlsx
+++ b/config_cjj/game_module_config.xlsx
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$234</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -4183,10 +4183,10 @@
   <dimension ref="A1:I288"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C266" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C234" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F278" sqref="F278:G278"/>
+      <selection pane="bottomRight" activeCell="D249" sqref="D249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10495,7 +10495,7 @@
         <v>725</v>
       </c>
       <c r="E249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F249">
         <v>1</v>

--- a/config_cjj/game_module_config.xlsx
+++ b/config_cjj/game_module_config.xlsx
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$234</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -4183,10 +4183,10 @@
   <dimension ref="A1:I288"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C234" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C225" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D249" sqref="D249"/>
+      <selection pane="bottomRight" activeCell="E240" sqref="E240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10261,7 +10261,7 @@
         <v>683</v>
       </c>
       <c r="E240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F240">
         <v>1</v>

--- a/config_cjj/game_module_config.xlsx
+++ b/config_cjj/game_module_config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="880">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3662,6 +3662,46 @@
   </si>
   <si>
     <t>新人专享</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_034_ldfd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>立冬福袋</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_034_LDFDManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_034_ldfl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>立冬福利（小游戏）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>by3d_shtx</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海探险</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BY3DSHTXManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3746,7 +3786,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3774,6 +3814,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3809,7 +3855,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3901,6 +3947,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4180,13 +4238,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I288"/>
+  <dimension ref="A1:I291"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C225" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C273" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E240" sqref="E240"/>
+      <selection pane="bottomRight" activeCell="E289" sqref="E289:G290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11515,6 +11573,81 @@
       </c>
       <c r="I288" s="24" t="s">
         <v>645</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A289" s="31">
+        <v>288</v>
+      </c>
+      <c r="B289" s="32" t="s">
+        <v>870</v>
+      </c>
+      <c r="C289" s="32" t="s">
+        <v>871</v>
+      </c>
+      <c r="D289" s="32" t="s">
+        <v>872</v>
+      </c>
+      <c r="E289" s="33">
+        <v>0</v>
+      </c>
+      <c r="F289" s="33">
+        <v>0</v>
+      </c>
+      <c r="G289" s="33">
+        <v>0</v>
+      </c>
+      <c r="I289" s="32" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A290" s="31">
+        <v>289</v>
+      </c>
+      <c r="B290" s="32" t="s">
+        <v>873</v>
+      </c>
+      <c r="C290" s="32" t="s">
+        <v>874</v>
+      </c>
+      <c r="E290" s="33">
+        <v>0</v>
+      </c>
+      <c r="F290" s="33">
+        <v>0</v>
+      </c>
+      <c r="G290" s="33">
+        <v>0</v>
+      </c>
+      <c r="I290" s="34" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A291" s="19">
+        <v>290</v>
+      </c>
+      <c r="B291" s="18" t="s">
+        <v>876</v>
+      </c>
+      <c r="C291" s="18" t="s">
+        <v>877</v>
+      </c>
+      <c r="D291" s="23" t="s">
+        <v>878</v>
+      </c>
+      <c r="E291">
+        <v>0</v>
+      </c>
+      <c r="F291">
+        <v>0</v>
+      </c>
+      <c r="G291">
+        <v>0</v>
+      </c>
+      <c r="I291" s="24" t="s">
+        <v>879</v>
       </c>
     </row>
   </sheetData>

--- a/config_cjj/game_module_config.xlsx
+++ b/config_cjj/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_cjj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_cjj\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="880">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="887">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3703,6 +3703,27 @@
   <si>
     <t>永久</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_035_ybwl</t>
+  </si>
+  <si>
+    <t>一本万利</t>
+  </si>
+  <si>
+    <t>Act_035_YBWLManager</t>
+  </si>
+  <si>
+    <t>永久</t>
+  </si>
+  <si>
+    <t>act_035_jhs</t>
+  </si>
+  <si>
+    <t>聚划算</t>
+  </si>
+  <si>
+    <t>Act_035_JHSManager</t>
   </si>
 </sst>
 </file>
@@ -4238,13 +4259,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I291"/>
+  <dimension ref="A1:I293"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C273" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E289" sqref="E289:G290"/>
+      <selection pane="bottomRight" activeCell="C276" sqref="C276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11648,6 +11669,58 @@
       </c>
       <c r="I291" s="24" t="s">
         <v>879</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A292" s="31">
+        <v>291</v>
+      </c>
+      <c r="B292" t="s">
+        <v>880</v>
+      </c>
+      <c r="C292" t="s">
+        <v>881</v>
+      </c>
+      <c r="D292" t="s">
+        <v>882</v>
+      </c>
+      <c r="E292">
+        <v>1</v>
+      </c>
+      <c r="F292">
+        <v>1</v>
+      </c>
+      <c r="G292">
+        <v>1</v>
+      </c>
+      <c r="I292" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A293" s="31">
+        <v>292</v>
+      </c>
+      <c r="B293" t="s">
+        <v>884</v>
+      </c>
+      <c r="C293" t="s">
+        <v>885</v>
+      </c>
+      <c r="D293" t="s">
+        <v>886</v>
+      </c>
+      <c r="E293">
+        <v>1</v>
+      </c>
+      <c r="F293">
+        <v>1</v>
+      </c>
+      <c r="G293">
+        <v>1</v>
+      </c>
+      <c r="I293" t="s">
+        <v>883</v>
       </c>
     </row>
   </sheetData>

--- a/config_cjj/game_module_config.xlsx
+++ b/config_cjj/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_cjj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_cjj\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4262,10 +4262,10 @@
   <dimension ref="A1:I293"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C273" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C225" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C276" sqref="C276"/>
+      <selection pane="bottomRight" activeCell="E240" sqref="E240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10340,7 +10340,7 @@
         <v>683</v>
       </c>
       <c r="E240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F240">
         <v>1</v>
